--- a/biology/Origine et évolution du vivant/Quand_les_poules_auront_des_dents/Quand_les_poules_auront_des_dents.xlsx
+++ b/biology/Origine et évolution du vivant/Quand_les_poules_auront_des_dents/Quand_les_poules_auront_des_dents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Quand les poules auront des dents (Hen's Teeth and Horse's Toes, en anglais), est un livre de vulgarisation scientifique de Stephen Jay Gould. Il s'agit du troisième tome de la compilation des essais parus dans la chronique This view of life du mensuel Natural History. Trois essais paraissent indépendamment : L'évolution : fait et théorie[note 1] dans le magazine Discover en mai 1981, La décroissance phylétique des barres Hershey[note 2] dans l'ouvrage de C. J. Rubin intitulé Junk food en 1980, et Réponse à mes détracteurs[note 3] a été écrit spécifiquement pour le recueil, en réponse à la controverse née de la parution de l'essai La conspiration de Piltdown[note 4]. Le livre est dédié à la mère de l'auteur, Eleanor.
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le livre se décompose en 7 parties comprenant au total 30 chapitres.
 Prologue
@@ -582,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Hen's Teeth and Horse's Toes » (voir la liste des auteurs).</t>
         </is>
